--- a/11-Parameters/VerticalDown-BeamLine-Gauss-Gabor.xlsx
+++ b/11-Parameters/VerticalDown-BeamLine-Gauss-Gabor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39115A84-E4EE-CA4F-9DB2-1D99F3ABB0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D301B6F-A8CB-7648-B222-C653FF17E568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="640" windowWidth="18500" windowHeight="19000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2347,32 +2347,33 @@
         <v>80</v>
       </c>
       <c r="F65" s="6">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" s="6">
         <f>PI()</f>
         <v>3.1415926535897931</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
-        <v>1</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F66" s="6">
-        <v>0</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>81</v>
